--- a/matlab/experiment/27Aug/30deg/sim60deg1.xlsx
+++ b/matlab/experiment/27Aug/30deg/sim60deg1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltd\OneDrive\Documents\2021\semester2\thesis-2021\matlab\experiment\27Aug\60deg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltd\OneDrive\Documents\2021\semester2\thesis-2021\matlab\experiment\27Aug\30deg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BCDC68-4CE5-4F16-9FEE-14E94D5C399D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2298A4-E8E0-4ED9-A5AC-1E23B03577CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AFA42FC5-70E8-4914-9766-5BFCBD524E36}"/>
   </bookViews>
@@ -40,12 +40,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Amplitude</t>
+  </si>
+  <si>
+    <t>Spacing</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,6 +140,5357 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Spacing</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Spacing!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Spacing!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.3586020973075229</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3586020973075229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.437</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.437</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.437</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.437</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.437</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.47399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.47399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.45900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.499</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.45600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.45600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.46899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.46899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.46899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.46600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.48899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.48899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.47099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.499</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.49388124307862802</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.49388124307862802</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.49388124307862802</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.48499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.48499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.49388124307862802</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.49388124307862802</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.49388124307862802</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.49388124307862802</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.49388124307862802</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97AB-4AAB-AEA7-BE9992F0F832}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Spacing!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Spacing!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.395908839776412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.395908839776412</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.502</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.51300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.51300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.51300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.51300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.52200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.496</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.51400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.51100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.51100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.51300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.51300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.51500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.51400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.50900000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97AB-4AAB-AEA7-BE9992F0F832}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Spacing!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Spacing!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.93158142682780332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93158142682780332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47685609885634639</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.42899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.42899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.47199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.47199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.42799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.47699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.45700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.45700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.47199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.47199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.47199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.49099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.49099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.47099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.47899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.47899999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-97AB-4AAB-AEA7-BE9992F0F832}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="398392256"/>
+        <c:axId val="398394752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="398392256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398394752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="398394752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398392256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Phase</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>173.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>173.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>173.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>173.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>173.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>184.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>184.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>184.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>184.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>199.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>199.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>184.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>184.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>184.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>184.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>186.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>186.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>191.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>182.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>182.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>182.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>183.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>210.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>210.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>178.9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>178.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>180.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>180.3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>180.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>183.6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>183.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>183.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F6F7-4E0E-B498-60F8D5A68C74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>103.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>103.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>103.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>103.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>92.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>92.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>98.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>98.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>96.6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>107.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>107.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>104.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>97.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>97.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>103.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>103.6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>104.9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>104.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>104.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>100.9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>100.9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>100.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F6F7-4E0E-B498-60F8D5A68C74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F6F7-4E0E-B498-60F8D5A68C74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$D$2:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>274.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>274.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>274.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>274.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>274.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>304.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>304.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>304.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>304.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>304.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>304.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>304.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>304.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>299.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>299.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>296.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>302.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>302.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>300.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>300.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>294.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>294.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>294.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>298.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>298.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>298.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F6F7-4E0E-B498-60F8D5A68C74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$E$2:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>215.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>215.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>215.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>215.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>215.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>227.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>227.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>227.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>227.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>214.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>214.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>227.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>227.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>227.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>227.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>215.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>215.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>217.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>223.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>222.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>218.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>218.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>224.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>224.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>224.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>221.9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>221.9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>221.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F6F7-4E0E-B498-60F8D5A68C74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$F$2:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>120.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>120.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>120.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>120.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>115.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>115.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>115.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>118.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>118.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>115.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>115.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>115.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>115.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>119.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>119.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>117.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>116.9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>115.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>115.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>117.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>118.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>118.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>116.9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>116.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>117.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>117.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>117.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>117.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>117.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>117.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F6F7-4E0E-B498-60F8D5A68C74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="680374512"/>
+        <c:axId val="680376176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="680374512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="680376176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="680376176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="680374512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Amplitude!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Amplitude!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.88100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.88100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.98527188461950022</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.98527188461950022</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.98527188461950022</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.98527188461950022</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.98527188461950022</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.88100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.88100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.82399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.82399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.25808924300060498</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.25808924300060498</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.753</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.753</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.54133706658469449</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.54133706658469449</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.54133706658469449</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8CB8-4F2A-A3A2-A790735100F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Amplitude!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Amplitude!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.94799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.94799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.95899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.95899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8CB8-4F2A-A3A2-A790735100F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Amplitude!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Amplitude!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.876</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.876</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.89300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.89300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.89300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.89300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.91200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.91200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.86304856945881314</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.88900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.90900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.92800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.90900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.86304856945881314</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.86304856945881314</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.86304856945881314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8CB8-4F2A-A3A2-A790735100F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Amplitude!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Amplitude!$D$2:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.98899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.98899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.98099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.98099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8CB8-4F2A-A3A2-A790735100F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Amplitude!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Amplitude!$E$2:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.73041460182657536</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.77100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.77100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.55613550033204151</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.89700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.89700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.81899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.81899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.92100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.92100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.873</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.873</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.83399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.83399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.86699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8CB8-4F2A-A3A2-A790735100F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Amplitude!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Amplitude!$F$2:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8CB8-4F2A-A3A2-A790735100F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="462567264"/>
+        <c:axId val="462571840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="462567264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462571840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="462571840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462567264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -100,10 +5501,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>39454</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>27032</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -127,7 +5528,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5638800" cy="3148414"/>
+          <a:ext cx="7254240" cy="4050392"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -138,16 +5539,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>101445</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>551025</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>69800</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>35090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -170,14 +5571,128 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5587845" y="0"/>
-          <a:ext cx="3441855" cy="3178760"/>
+          <a:off x="7256625" y="0"/>
+          <a:ext cx="4394355" cy="4058450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{862F5BA9-6764-42CC-8A23-82DA212DCCBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{173F4CB4-AE4B-47A2-8EE9-B8FE9D2E5B4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A1CF98A-2DDB-44DD-866C-F253A781DC87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -480,14 +5995,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D845B95-2F20-42D8-A2C5-34E335670CA9}">
-  <dimension ref="A1"/>
+  <dimension ref="C25:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="F25">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="G25">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>183.6</v>
+      </c>
+      <c r="E26">
+        <v>100.9</v>
+      </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <v>298.8</v>
+      </c>
+      <c r="H26">
+        <v>221.9</v>
+      </c>
+      <c r="I26">
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>0.54133706658469449</v>
+      </c>
+      <c r="E27">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="F27">
+        <v>0.86304856945881314</v>
+      </c>
+      <c r="G27">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="H27">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>-4.7837463247115828</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -495,29 +6085,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7ECFFB9-5D6F-4E07-9252-D37E275389E9}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:E50"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>0.3586020973075229</v>
-      </c>
-      <c r="B1">
-        <v>0.395908839776412</v>
-      </c>
-      <c r="C1">
-        <v>0.93158142682780332</v>
-      </c>
-      <c r="D1">
-        <v>0.395908839776412</v>
-      </c>
-      <c r="E1">
-        <v>0.3586020973075229</v>
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -539,19 +6123,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.437</v>
+        <v>0.3586020973075229</v>
       </c>
       <c r="B3">
-        <v>0.502</v>
+        <v>0.395908839776412</v>
       </c>
       <c r="C3">
-        <v>0.36799999999999999</v>
+        <v>0.93158142682780332</v>
       </c>
       <c r="D3">
-        <v>0.502</v>
+        <v>0.395908839776412</v>
       </c>
       <c r="E3">
-        <v>0.437</v>
+        <v>0.3586020973075229</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -607,36 +6191,36 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.39400000000000002</v>
+        <v>0.437</v>
       </c>
       <c r="B7">
-        <v>0.53500000000000003</v>
+        <v>0.502</v>
       </c>
       <c r="C7">
-        <v>0.47685609885634639</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="D7">
-        <v>0.53500000000000003</v>
+        <v>0.502</v>
       </c>
       <c r="E7">
-        <v>0.39400000000000002</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.42</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="B8">
-        <v>0.51200000000000001</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="C8">
-        <v>0.35399999999999998</v>
+        <v>0.47685609885634639</v>
       </c>
       <c r="D8">
-        <v>0.51200000000000001</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="E8">
-        <v>0.42</v>
+        <v>0.39400000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -658,36 +6242,36 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.437</v>
+        <v>0.42</v>
       </c>
       <c r="B10">
-        <v>0.502</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="C10">
-        <v>0.36799999999999999</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="D10">
-        <v>0.502</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="E10">
-        <v>0.437</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.44900000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="B11">
-        <v>0.53</v>
+        <v>0.502</v>
       </c>
       <c r="C11">
-        <v>0.42899999999999999</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="D11">
-        <v>0.53</v>
+        <v>0.502</v>
       </c>
       <c r="E11">
-        <v>0.44900000000000001</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -726,19 +6310,19 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.47399999999999998</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="B14">
-        <v>0.51300000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="C14">
-        <v>0.47199999999999998</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="D14">
-        <v>0.51300000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="E14">
-        <v>0.47399999999999998</v>
+        <v>0.44900000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -794,70 +6378,70 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>0.46200000000000002</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="B18">
-        <v>0.52200000000000002</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="C18">
-        <v>0.45100000000000001</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="D18">
-        <v>0.52200000000000002</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="E18">
-        <v>0.46200000000000002</v>
+        <v>0.47399999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.45500000000000002</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="B19">
-        <v>0.496</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="C19">
-        <v>0.42799999999999999</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="D19">
-        <v>0.496</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="E19">
-        <v>0.45500000000000002</v>
+        <v>0.46200000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.45900000000000002</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="B20">
-        <v>0.50900000000000001</v>
+        <v>0.496</v>
       </c>
       <c r="C20">
-        <v>0.44</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="D20">
-        <v>0.50900000000000001</v>
+        <v>0.496</v>
       </c>
       <c r="E20">
-        <v>0.45900000000000002</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.46</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="B21">
-        <v>0.51200000000000001</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="C21">
-        <v>0.45500000000000002</v>
+        <v>0.44</v>
       </c>
       <c r="D21">
-        <v>0.51200000000000001</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="E21">
-        <v>0.46</v>
+        <v>0.45900000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -896,36 +6480,36 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0.499</v>
+        <v>0.46</v>
       </c>
       <c r="B24">
-        <v>0.51400000000000001</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="C24">
-        <v>0.50800000000000001</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D24">
-        <v>0.51400000000000001</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="E24">
-        <v>0.499</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.48</v>
+        <v>0.499</v>
       </c>
       <c r="B25">
-        <v>0.51100000000000001</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="C25">
-        <v>0.49399999999999999</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D25">
-        <v>0.51100000000000001</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="E25">
-        <v>0.48</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -947,36 +6531,36 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0.46700000000000003</v>
+        <v>0.48</v>
       </c>
       <c r="B27">
-        <v>0.51200000000000001</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="C27">
-        <v>0.47699999999999998</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="D27">
-        <v>0.51200000000000001</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="E27">
-        <v>0.46700000000000003</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.45600000000000002</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="B28">
         <v>0.51200000000000001</v>
       </c>
       <c r="C28">
-        <v>0.45700000000000002</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="D28">
         <v>0.51200000000000001</v>
       </c>
       <c r="E28">
-        <v>0.45600000000000002</v>
+        <v>0.46700000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -998,19 +6582,19 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.46899999999999997</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="B30">
-        <v>0.51800000000000002</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="C30">
-        <v>0.47199999999999998</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D30">
-        <v>0.51800000000000002</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="E30">
-        <v>0.46899999999999997</v>
+        <v>0.45600000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1049,36 +6633,36 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.46600000000000003</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="B33">
-        <v>0.50900000000000001</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="C33">
-        <v>0.47499999999999998</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="D33">
-        <v>0.50900000000000001</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="E33">
-        <v>0.46600000000000003</v>
+        <v>0.46899999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.48899999999999999</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="B34">
-        <v>0.51300000000000001</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="C34">
-        <v>0.49099999999999999</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D34">
-        <v>0.51300000000000001</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="E34">
-        <v>0.48899999999999999</v>
+        <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1100,53 +6684,53 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.47099999999999997</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="B36">
-        <v>0.51500000000000001</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="C36">
-        <v>0.47099999999999997</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D36">
-        <v>0.51500000000000001</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="E36">
-        <v>0.47099999999999997</v>
+        <v>0.48899999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.499</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="B37">
-        <v>0.51400000000000001</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="C37">
-        <v>0.50800000000000001</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="D37">
-        <v>0.51400000000000001</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="E37">
-        <v>0.499</v>
+        <v>0.47099999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.49388124307862802</v>
+        <v>0.499</v>
       </c>
       <c r="B38">
-        <v>0.51200000000000001</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="C38">
-        <v>0.46500000000000002</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D38">
-        <v>0.51200000000000001</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="E38">
-        <v>0.49388124307862802</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1185,19 +6769,19 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0.48499999999999999</v>
+        <v>0.49388124307862802</v>
       </c>
       <c r="B41">
         <v>0.51200000000000001</v>
       </c>
       <c r="C41">
-        <v>0.49199999999999999</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="D41">
         <v>0.51200000000000001</v>
       </c>
       <c r="E41">
-        <v>0.48499999999999999</v>
+        <v>0.49388124307862802</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1219,19 +6803,19 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0.49388124307862802</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="B43">
         <v>0.51200000000000001</v>
       </c>
       <c r="C43">
-        <v>0.46500000000000002</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="D43">
         <v>0.51200000000000001</v>
       </c>
       <c r="E43">
-        <v>0.49388124307862802</v>
+        <v>0.48499999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1304,19 +6888,19 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.5</v>
+        <v>0.49388124307862802</v>
       </c>
       <c r="B48">
-        <v>0.50900000000000001</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="C48">
-        <v>0.47899999999999998</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="D48">
-        <v>0.50900000000000001</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="E48">
-        <v>0.5</v>
+        <v>0.49388124307862802</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1350,6 +6934,23 @@
         <v>0.50900000000000001</v>
       </c>
       <c r="E50">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0.5</v>
+      </c>
+      <c r="B51">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="C51">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="D51">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="E51">
         <v>0.5</v>
       </c>
     </row>
@@ -1360,32 +6961,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C38903-F150-4F46-9D5C-E4F8B4794CE8}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:F50"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>252</v>
-      </c>
-      <c r="B1">
-        <v>179</v>
-      </c>
-      <c r="C1">
-        <v>121</v>
-      </c>
-      <c r="D1">
-        <v>242</v>
-      </c>
-      <c r="E1">
-        <v>211</v>
-      </c>
-      <c r="F1">
-        <v>189</v>
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1410,22 +7011,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>98</v>
+        <v>252</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="D3">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E3">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="F3">
-        <v>123</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1570,7 +7171,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="B11">
         <v>61</v>
@@ -1730,22 +7331,22 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>173.8</v>
+        <v>170</v>
       </c>
       <c r="B19">
-        <v>103.9</v>
+        <v>61</v>
       </c>
       <c r="C19">
-        <v>25.9</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>274.8</v>
+        <v>252</v>
       </c>
       <c r="E19">
-        <v>215.6</v>
+        <v>198</v>
       </c>
       <c r="F19">
-        <v>120.2</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1830,22 +7431,22 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>184.3</v>
+        <v>173.8</v>
       </c>
       <c r="B24">
-        <v>98.4</v>
+        <v>103.9</v>
       </c>
       <c r="C24">
-        <v>48.7</v>
+        <v>25.9</v>
       </c>
       <c r="D24">
-        <v>304.5</v>
+        <v>274.8</v>
       </c>
       <c r="E24">
-        <v>227.1</v>
+        <v>215.6</v>
       </c>
       <c r="F24">
-        <v>115.8</v>
+        <v>120.2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1856,7 +7457,7 @@
         <v>98.4</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>48.7</v>
       </c>
       <c r="D25">
         <v>304.5</v>
@@ -1910,22 +7511,22 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>199.1</v>
+        <v>184.3</v>
       </c>
       <c r="B28">
-        <v>92.4</v>
+        <v>98.4</v>
       </c>
       <c r="C28">
-        <v>25.1</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>325</v>
+        <v>304.5</v>
       </c>
       <c r="E28">
-        <v>214.6</v>
+        <v>227.1</v>
       </c>
       <c r="F28">
-        <v>118.2</v>
+        <v>115.8</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1950,22 +7551,22 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>184.3</v>
+        <v>199.1</v>
       </c>
       <c r="B30">
-        <v>98.4</v>
+        <v>92.4</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>25.1</v>
       </c>
       <c r="D30">
-        <v>304.5</v>
+        <v>325</v>
       </c>
       <c r="E30">
-        <v>227.1</v>
+        <v>214.6</v>
       </c>
       <c r="F30">
-        <v>115.8</v>
+        <v>118.2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2030,22 +7631,22 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>186.5</v>
+        <v>184.3</v>
       </c>
       <c r="B34">
-        <v>98.2</v>
+        <v>98.4</v>
       </c>
       <c r="C34">
-        <v>25.5</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>299.89999999999998</v>
+        <v>304.5</v>
       </c>
       <c r="E34">
-        <v>215.1</v>
+        <v>227.1</v>
       </c>
       <c r="F34">
-        <v>119.2</v>
+        <v>115.8</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2070,62 +7671,62 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>191.3</v>
+        <v>186.5</v>
       </c>
       <c r="B36">
-        <v>96.6</v>
+        <v>98.2</v>
       </c>
       <c r="C36">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="D36">
-        <v>301</v>
+        <v>299.89999999999998</v>
       </c>
       <c r="E36">
-        <v>217.1</v>
+        <v>215.1</v>
       </c>
       <c r="F36">
-        <v>117.9</v>
+        <v>119.2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>182.2</v>
+        <v>191.3</v>
       </c>
       <c r="B37">
-        <v>98.5</v>
+        <v>96.6</v>
       </c>
       <c r="C37">
-        <v>26.1</v>
+        <v>25.7</v>
       </c>
       <c r="D37">
-        <v>296.39999999999998</v>
+        <v>301</v>
       </c>
       <c r="E37">
-        <v>223.6</v>
+        <v>217.1</v>
       </c>
       <c r="F37">
-        <v>116.9</v>
+        <v>117.9</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>182.3</v>
+        <v>182.2</v>
       </c>
       <c r="B38">
-        <v>107.2</v>
+        <v>98.5</v>
       </c>
       <c r="C38">
-        <v>24.2</v>
+        <v>26.1</v>
       </c>
       <c r="D38">
-        <v>302.7</v>
+        <v>296.39999999999998</v>
       </c>
       <c r="E38">
-        <v>227</v>
+        <v>223.6</v>
       </c>
       <c r="F38">
-        <v>115.8</v>
+        <v>116.9</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2150,42 +7751,42 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>183.9</v>
+        <v>182.3</v>
       </c>
       <c r="B40">
-        <v>104.8</v>
+        <v>107.2</v>
       </c>
       <c r="C40">
-        <v>26.3</v>
+        <v>24.2</v>
       </c>
       <c r="D40">
-        <v>298</v>
+        <v>302.7</v>
       </c>
       <c r="E40">
-        <v>222.3</v>
+        <v>227</v>
       </c>
       <c r="F40">
-        <v>117.5</v>
+        <v>115.8</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>210.3</v>
+        <v>183.9</v>
       </c>
       <c r="B41">
-        <v>97.8</v>
+        <v>104.8</v>
       </c>
       <c r="C41">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="D41">
-        <v>300.89999999999998</v>
+        <v>298</v>
       </c>
       <c r="E41">
-        <v>218.8</v>
+        <v>222.3</v>
       </c>
       <c r="F41">
-        <v>118.2</v>
+        <v>117.5</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2210,22 +7811,22 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>178.9</v>
+        <v>210.3</v>
       </c>
       <c r="B43">
-        <v>103.6</v>
+        <v>97.8</v>
       </c>
       <c r="C43">
-        <v>26.5</v>
+        <v>26.1</v>
       </c>
       <c r="D43">
-        <v>294</v>
+        <v>300.89999999999998</v>
       </c>
       <c r="E43">
-        <v>231</v>
+        <v>218.8</v>
       </c>
       <c r="F43">
-        <v>116.9</v>
+        <v>118.2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2250,22 +7851,22 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>180.3</v>
+        <v>178.9</v>
       </c>
       <c r="B45">
-        <v>104.9</v>
+        <v>103.6</v>
       </c>
       <c r="C45">
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
       <c r="D45">
-        <v>294.2</v>
+        <v>294</v>
       </c>
       <c r="E45">
-        <v>224.2</v>
+        <v>231</v>
       </c>
       <c r="F45">
-        <v>117.2</v>
+        <v>116.9</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2310,22 +7911,22 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>183.6</v>
+        <v>180.3</v>
       </c>
       <c r="B48">
-        <v>100.9</v>
+        <v>104.9</v>
       </c>
       <c r="C48">
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="D48">
-        <v>298.8</v>
+        <v>294.2</v>
       </c>
       <c r="E48">
-        <v>221.9</v>
+        <v>224.2</v>
       </c>
       <c r="F48">
-        <v>117.5</v>
+        <v>117.2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2368,39 +7969,60 @@
         <v>117.5</v>
       </c>
     </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>183.6</v>
+      </c>
+      <c r="B51">
+        <v>100.9</v>
+      </c>
+      <c r="C51">
+        <v>25</v>
+      </c>
+      <c r="D51">
+        <v>298.8</v>
+      </c>
+      <c r="E51">
+        <v>221.9</v>
+      </c>
+      <c r="F51">
+        <v>117.5</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34CF0BC-476A-43EC-AB0D-4A20FA1E5CEC}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:F50"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2565,7 +8187,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.78400000000000003</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2577,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0.77300000000000002</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2585,7 +8207,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2597,7 +8219,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2697,7 +8319,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0.73041460182657536</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2705,10 +8327,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>0.97799999999999998</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>0.97899999999999998</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2717,7 +8339,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0.77100000000000002</v>
+        <v>0.73041460182657536</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2745,19 +8367,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.94699999999999995</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="C19">
-        <v>0.97299999999999998</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0.55613550033204151</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2771,13 +8393,13 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.98</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="D20">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0.69099999999999995</v>
+        <v>0.55613550033204151</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2845,19 +8467,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0.86499999999999999</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="B24">
-        <v>0.98199999999999998</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0.86299999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="D24">
-        <v>0.98</v>
+        <v>0.999</v>
       </c>
       <c r="E24">
-        <v>0.92200000000000004</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -2925,19 +8547,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.88100000000000001</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="B28">
-        <v>0.98799999999999999</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="C28">
-        <v>0.876</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="D28">
-        <v>0.98899999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="E28">
-        <v>0.89700000000000002</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2965,19 +8587,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.98527188461950022</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="B30">
-        <v>0.94699999999999995</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="C30">
-        <v>0.89300000000000002</v>
+        <v>0.876</v>
       </c>
       <c r="D30">
-        <v>0.97599999999999998</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="E30">
-        <v>0.95299999999999996</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -3045,19 +8667,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.69799999999999995</v>
+        <v>0.98527188461950022</v>
       </c>
       <c r="B34">
-        <v>0.94799999999999995</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="C34">
-        <v>0.91200000000000003</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="D34">
-        <v>0.97699999999999998</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="E34">
-        <v>0.81899999999999995</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -3085,19 +8707,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.98527188461950022</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="B36">
-        <v>0.94699999999999995</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="C36">
-        <v>0.86304856945881314</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="D36">
-        <v>0.97599999999999998</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="E36">
-        <v>0.95299999999999996</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3105,19 +8727,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.64600000000000002</v>
+        <v>0.98527188461950022</v>
       </c>
       <c r="B37">
-        <v>0.96399999999999997</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="C37">
-        <v>0.88900000000000001</v>
+        <v>0.86304856945881314</v>
       </c>
       <c r="D37">
-        <v>0.96399999999999997</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="E37">
-        <v>0.91800000000000004</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -3125,19 +8747,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.88100000000000001</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="B38">
-        <v>0.95399999999999996</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="C38">
-        <v>0.90900000000000003</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="D38">
         <v>0.96399999999999997</v>
       </c>
       <c r="E38">
-        <v>0.92100000000000004</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -3145,19 +8767,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.85499999999999998</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="B39">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="C39">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="D39">
         <v>0.96399999999999997</v>
       </c>
-      <c r="C39">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="D39">
-        <v>0.97499999999999998</v>
-      </c>
       <c r="E39">
-        <v>0.88600000000000001</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -3165,19 +8787,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.88100000000000001</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="B40">
-        <v>0.95399999999999996</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="C40">
-        <v>0.90900000000000003</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="D40">
-        <v>0.96399999999999997</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="E40">
-        <v>0.92100000000000004</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -3185,19 +8807,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0.82399999999999995</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="B41">
-        <v>0.97599999999999998</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="C41">
-        <v>0.94699999999999995</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="D41">
-        <v>0.99199999999999999</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="E41">
-        <v>0.76400000000000001</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -3225,19 +8847,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0.25808924300060498</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="B43">
-        <v>0.97</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="C43">
-        <v>0.93799999999999994</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="D43">
-        <v>0.98099999999999998</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="E43">
-        <v>0.873</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -3265,19 +8887,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.753</v>
+        <v>0.25808924300060498</v>
       </c>
       <c r="B45">
-        <v>0.95899999999999996</v>
+        <v>0.97</v>
       </c>
       <c r="C45">
-        <v>0.91600000000000004</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="D45">
-        <v>0.97799999999999998</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="E45">
-        <v>0.83399999999999996</v>
+        <v>0.873</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -3305,19 +8927,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.76300000000000001</v>
+        <v>0.753</v>
       </c>
       <c r="B47">
-        <v>0.94699999999999995</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="C47">
-        <v>0.86299999999999999</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="D47">
         <v>0.97799999999999998</v>
       </c>
       <c r="E47">
-        <v>0.86699999999999999</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -3325,19 +8947,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.54133706658469449</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="B48">
         <v>0.94699999999999995</v>
       </c>
       <c r="C48">
-        <v>0.86304856945881314</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="D48">
-        <v>0.97599999999999998</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="E48">
-        <v>0.95299999999999996</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -3383,7 +9005,28 @@
         <v>1</v>
       </c>
     </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>0.54133706658469449</v>
+      </c>
+      <c r="B51">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="C51">
+        <v>0.86304856945881314</v>
+      </c>
+      <c r="D51">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="E51">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
